--- a/data/trans_orig/Q47-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Estudios-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>170.1773912256102</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169.5544879808792</v>
+        <v>169.5544879808793</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>158.3075574462012</v>
@@ -693,7 +693,7 @@
         <v>163.8488405107285</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>163.571939683093</v>
+        <v>163.5719396830929</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>169.2071370787325</v>
+        <v>169.2358910936963</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>169.0074218838226</v>
+        <v>168.9239951267524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>169.5904591888891</v>
+        <v>169.6202967986803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168.9237143200707</v>
+        <v>168.9985542492418</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>157.9439916843364</v>
+        <v>157.9667392979897</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>158.2038869024112</v>
+        <v>158.1523133904374</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>158.34025616654</v>
+        <v>158.3721483048886</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>158.8762809201531</v>
+        <v>158.8846493385066</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>162.9115852606572</v>
+        <v>162.9087684652182</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>162.8502761686266</v>
+        <v>162.8821346248268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>163.4436721034341</v>
+        <v>163.3884451648429</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>163.1914267651546</v>
+        <v>163.0994043554599</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>170.0138502260959</v>
+        <v>170.0830351270226</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>169.9145957086662</v>
+        <v>169.91717100034</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>170.7365757665542</v>
+        <v>170.7054125664049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>170.1904441468343</v>
+        <v>170.2239822368879</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>158.7220812727883</v>
+        <v>158.6574701533168</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>158.9332735368777</v>
+        <v>158.8819261564464</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>159.2385567663648</v>
+        <v>159.1919796203229</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>159.5596728322389</v>
+        <v>159.5584095946579</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>163.6435036436637</v>
+        <v>163.6263406057885</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>163.6482184987267</v>
+        <v>163.6065491794102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>164.3309632822579</v>
+        <v>164.3178542495212</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>164.0053139473595</v>
+        <v>163.9599600683975</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>174.1984423579755</v>
+        <v>174.2079745937882</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>173.817530498036</v>
+        <v>173.801908869172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174.1194522430862</v>
+        <v>174.0682269388818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173.7352842217724</v>
+        <v>173.7469715894518</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>161.8873422970026</v>
+        <v>161.8569637021626</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>161.7005872039583</v>
+        <v>161.6978340708232</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>161.8655598482629</v>
+        <v>161.8629764967656</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>162.2784794387837</v>
+        <v>162.2800427161188</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>168.2747987477821</v>
+        <v>168.2541891661605</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>168.1142573281509</v>
+        <v>168.1086016650615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>168.1337461059482</v>
+        <v>168.1186742785811</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>168.108189696401</v>
+        <v>168.1351839608987</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>174.8783859941381</v>
+        <v>174.8975984944292</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>174.4599187103924</v>
+        <v>174.425587358572</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>174.7841420297009</v>
+        <v>174.7864553562401</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>174.4098587652275</v>
+        <v>174.4229753597092</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>162.5107183319547</v>
+        <v>162.5131883102036</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>162.3313200756023</v>
+        <v>162.3236024337919</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>162.4732143962909</v>
+        <v>162.4704234358567</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>162.7830080024081</v>
+        <v>162.785400924256</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>168.9300728967126</v>
+        <v>168.8922219816338</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>168.7376473400307</v>
+        <v>168.7263179451908</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>168.7467307673602</v>
+        <v>168.7381231955864</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>168.6595708346001</v>
+        <v>168.7391466625597</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>169.7879874094081</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>169.7251409743914</v>
+        <v>169.7251409743913</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>174.9325328445348</v>
+        <v>174.867326545342</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>175.6114876352784</v>
+        <v>175.6323831834839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175.7666111326815</v>
+        <v>175.820449513531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175.245498924576</v>
+        <v>175.2043652170825</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>163.0419419027637</v>
+        <v>163.0034214318776</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>163.4663630800868</v>
+        <v>163.4669736352239</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>162.6036649204594</v>
+        <v>162.6176331404285</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>163.4118716020576</v>
+        <v>163.434324615804</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>169.3864277324865</v>
+        <v>169.4639834764413</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>169.7028465966999</v>
+        <v>169.6901034228114</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>169.1559171293368</v>
+        <v>169.2341310708601</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>169.2127254169283</v>
+        <v>169.2532814727098</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>176.0889683764007</v>
+        <v>176.1108694677666</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>176.9689416102195</v>
+        <v>176.9730314644092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>177.027654403733</v>
+        <v>177.0658541890238</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>176.3091883659721</v>
+        <v>176.2968988926077</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>164.1161961647158</v>
+        <v>164.1175510716479</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>164.7940166247687</v>
+        <v>164.7640571254005</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>163.7247614789944</v>
+        <v>163.7086750169206</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>164.2388695146404</v>
+        <v>164.2209782279651</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>170.5251536168888</v>
+        <v>170.5434472473416</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>171.0308448154326</v>
+        <v>170.9816811302772</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>170.3431556347881</v>
+        <v>170.4010070629712</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>170.1864436460284</v>
+        <v>170.2102037556449</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>173.8308608506007</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173.7096296322462</v>
+        <v>173.7096296322463</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>160.8870656074364</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>172.9395355326013</v>
+        <v>172.943260940433</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>172.880856189236</v>
+        <v>172.8513365587275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>173.5695947999535</v>
+        <v>173.5430271958288</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173.4368393187364</v>
+        <v>173.4664284967864</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>160.6456869072326</v>
+        <v>160.6514886225675</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>160.7905860359599</v>
+        <v>160.8154003006567</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>161.2127671012738</v>
+        <v>161.1770032213794</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>161.9052282682979</v>
+        <v>161.9173440621283</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>166.7078031994301</v>
+        <v>166.7134362621673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166.7898285618292</v>
+        <v>166.7777358298487</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167.3011314273971</v>
+        <v>167.2824152868824</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>167.5432380501316</v>
+        <v>167.561741630474</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>173.4237117341938</v>
+        <v>173.4350992178273</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>173.4087624127046</v>
+        <v>173.375669724861</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>174.0899731243199</v>
+        <v>174.0768739435967</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>173.9733229529426</v>
+        <v>173.9819738969423</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>161.1109958098429</v>
+        <v>161.0907964983102</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>161.2632402859789</v>
+        <v>161.2630519447429</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>161.6823158796752</v>
+        <v>161.6550947230833</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>162.3010146359083</v>
+        <v>162.2785213160238</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>167.1901405949151</v>
+        <v>167.1686526005541</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>167.2315457304113</v>
+        <v>167.2341914023465</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>167.7669059111916</v>
+        <v>167.7568700270435</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>167.9932645278147</v>
+        <v>168.0061944775821</v>
       </c>
     </row>
     <row r="16">
